--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PBL\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F64D801-6540-4F59-AC0A-6243E3B36C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDEE052-9EBA-4AD0-A478-81B18DCEC123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>座席表</t>
     <rPh sb="0" eb="3">
@@ -225,6 +225,53 @@
     <rPh sb="2" eb="4">
       <t>レツメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員名</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X先生</t>
+    <rPh sb="1" eb="3">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X先生@gmail.com</t>
+    <rPh sb="1" eb="3">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時刻</t>
+    <rPh sb="0" eb="4">
+      <t>カイシジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時刻</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16:40</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -232,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +292,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,14 +320,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="14.58203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -644,21 +703,45 @@
       </c>
     </row>
     <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
@@ -680,7 +763,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{4C035128-AE88-452F-AF4D-595DB54D3C87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PBL\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsushitakazuya/pro/pbl/PBL4-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDEE052-9EBA-4AD0-A478-81B18DCEC123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46081AF1-E2B3-E144-A64A-57B61AF387C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,11 +612,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -657,12 +659,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -674,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -691,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -702,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -713,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -724,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -735,7 +737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -746,17 +748,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>21</v>
       </c>
